--- a/scripts/dev/mapping_1cho.xlsx
+++ b/scripts/dev/mapping_1cho.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahtanjung/Projects/ceda-fairnessawareness/scripts/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301B2742-1D7F-A84B-9D45-F72561E534F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B57CB3-6934-D547-9FB8-2B7215C68BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{B78D59E7-0030-0645-8726-42CC1661625F}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{B78D59E7-0030-0645-8726-42CC1661625F}"/>
   </bookViews>
   <sheets>
     <sheet name="mapping" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t xml:space="preserve">from </t>
   </si>
@@ -168,12 +168,6 @@
     <t>Kan worden bepaald o.b.v. VOP_Toelaatgevende_vooropleiding_soort</t>
   </si>
   <si>
-    <t>Kan worden bepaald o.b.v Cijfer eerste centraal examen</t>
-  </si>
-  <si>
-    <t>Idem ditto</t>
-  </si>
-  <si>
     <t>aanwezig/kan worden gemaakt</t>
   </si>
   <si>
@@ -220,6 +214,21 @@
   </si>
   <si>
     <t>ses_totaalscore</t>
+  </si>
+  <si>
+    <t>entl</t>
+  </si>
+  <si>
+    <t>nat</t>
+  </si>
+  <si>
+    <t>netl</t>
+  </si>
+  <si>
+    <t>wis</t>
+  </si>
+  <si>
+    <t>Onnodig?</t>
   </si>
 </sst>
 </file>
@@ -614,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451CCA4F-1413-6B47-897A-0B7E340EE5BC}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="93" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -633,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -644,7 +653,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -655,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -666,7 +675,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -688,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -704,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -742,7 +751,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -756,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -767,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -775,7 +784,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -785,18 +794,27 @@
       <c r="A16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -804,40 +822,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -845,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -853,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -861,63 +879,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="C28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="C29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="C30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="C31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
@@ -960,7 +990,7 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>

--- a/scripts/dev/mapping_1cho.xlsx
+++ b/scripts/dev/mapping_1cho.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahtanjung/Projects/ceda-fairnessawareness/scripts/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B57CB3-6934-D547-9FB8-2B7215C68BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15CAA08-880D-6140-883A-032928F42D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{B78D59E7-0030-0645-8726-42CC1661625F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{B78D59E7-0030-0645-8726-42CC1661625F}"/>
   </bookViews>
   <sheets>
     <sheet name="mapping" sheetId="1" r:id="rId1"/>
-    <sheet name="onbekend" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t xml:space="preserve">from </t>
   </si>
@@ -54,12 +53,6 @@
     <t>Inschrijvingsjaar</t>
   </si>
   <si>
-    <t>Hoogste vooropleiding</t>
-  </si>
-  <si>
-    <t>Gem. eindcijfer VO van de hoogste vooropl. vóór het HO</t>
-  </si>
-  <si>
     <t>CBS_APCG_tf</t>
   </si>
   <si>
@@ -165,9 +158,6 @@
     <t>opmerking relevantie</t>
   </si>
   <si>
-    <t>Kan worden bepaald o.b.v. VOP_Toelaatgevende_vooropleiding_soort</t>
-  </si>
-  <si>
     <t>aanwezig/kan worden gemaakt</t>
   </si>
   <si>
@@ -229,6 +219,30 @@
   </si>
   <si>
     <t>Onnodig?</t>
+  </si>
+  <si>
+    <t>Alleen aantal inschrijvingen binnen 1cyferHO bestand van de onderwijsinstelling</t>
+  </si>
+  <si>
+    <t>hoogste_vooropleiding_soort</t>
+  </si>
+  <si>
+    <t>hoogste_vooropleiding_profiel</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>switch_intern</t>
+  </si>
+  <si>
+    <t>Te achterhalen maar nodig?</t>
+  </si>
+  <si>
+    <t>cijfer_schoolexamen</t>
+  </si>
+  <si>
+    <t>Wellicht vervangen met absolute afstand gemeente woonplaats naar gemeente onderwijsinstelling</t>
   </si>
 </sst>
 </file>
@@ -623,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451CCA4F-1413-6B47-897A-0B7E340EE5BC}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="93" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -642,18 +656,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -664,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -675,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -683,26 +697,29 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -710,18 +727,21 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -732,7 +752,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -740,7 +760,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -748,10 +768,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -759,32 +779,32 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -792,7 +812,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -800,23 +820,32 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -824,10 +853,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -835,10 +864,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -846,10 +875,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -857,34 +886,43 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -892,10 +930,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -903,10 +941,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -914,10 +952,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
@@ -925,10 +963,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
@@ -936,61 +974,76 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="C34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="D36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
@@ -1007,16 +1060,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4ACCE0-97CB-2D45-8214-6EC864A0B6BC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/scripts/dev/mapping_1cho.xlsx
+++ b/scripts/dev/mapping_1cho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahtanjung/Projects/ceda-fairnessawareness/scripts/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15CAA08-880D-6140-883A-032928F42D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36093DD7-29E7-D443-9C01-0BF18A50DF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{B78D59E7-0030-0645-8726-42CC1661625F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
   <si>
     <t xml:space="preserve">from </t>
   </si>
@@ -224,15 +224,9 @@
     <t>Alleen aantal inschrijvingen binnen 1cyferHO bestand van de onderwijsinstelling</t>
   </si>
   <si>
-    <t>hoogste_vooropleiding_soort</t>
-  </si>
-  <si>
     <t>hoogste_vooropleiding_profiel</t>
   </si>
   <si>
-    <t>WIP</t>
-  </si>
-  <si>
     <t>switch_intern</t>
   </si>
   <si>
@@ -243,6 +237,9 @@
   </si>
   <si>
     <t>Wellicht vervangen met absolute afstand gemeente woonplaats naar gemeente onderwijsinstelling</t>
+  </si>
+  <si>
+    <t>vooropleiding</t>
   </si>
 </sst>
 </file>
@@ -638,7 +635,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -703,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -826,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -834,13 +831,13 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -996,7 +993,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
@@ -1007,13 +1004,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" t="b">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1021,13 +1015,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">

--- a/scripts/dev/mapping_1cho.xlsx
+++ b/scripts/dev/mapping_1cho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahtanjung/Projects/ceda-fairnessawareness/scripts/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36093DD7-29E7-D443-9C01-0BF18A50DF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56AC0CF-8BDB-1C4E-9EA5-288F5FF862E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{B78D59E7-0030-0645-8726-42CC1661625F}"/>
   </bookViews>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451CCA4F-1413-6B47-897A-0B7E340EE5BC}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
